--- a/outputs/POMPANO2.xlsx
+++ b/outputs/POMPANO2.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Abi is looking for travel visa information related to attending the ICSE conference. The "Attending" section lists "Visas and Travel" as an option, which would likely be recognized as relevant information by Abi for achieving her goal. This aligns with her motivation to gather all necessary details about attending the conference and her comprehensive information processing style. Additionally, the clear labeling helps with her computer self-efficacy, making it easier for her to identify the correct subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Attending" section is clearly labeled and includes a variety of relevant options for someone preparing to attend the conference, such as "Visas and Travel." This aligns with Abi's motivation to gather necessary travel information. The straightforward labeling and organization of the section fit Abi's comprehensive information processing style, making it easier for her to know what to do next. Additionally, the clear labeling supports her computer self-efficacy, making her feel confident about where to click.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Attending" section is not clearly marked as a clickable link or button, and there is no explicit instruction indicating that clicking "Attending" will lead to visa information. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident about what to do at this step without clear guidance.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi is presented with a dropdown menu that includes "Visas and Travel Authorizations," which is clearly relevant to her goal of finding visa information. This immediate visibility of the relevant option confirms that she is making progress toward her goal. The clear and organized presentation helps her feel confident in her actions and supports her motivation and information processing style, ensuring she has landed on the right page and is on the correct path to gather the necessary visa information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi will see a dropdown menu with a clear option labeled "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. Given her motivation to attend the conference and her comprehensive information processing style, she will recognize that she is making progress toward her goal and will know to click on the "Visas and Travel Authorizations" link to get the information she needs.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. This direct labeling aligns with Abi's motivation to find visa information and provides a straightforward path to follow. Given her comprehensive information processing style, she will likely recognize this as the next step to gather necessary details. The clear and descriptive label supports her computer self-efficacy, making her confident in knowing what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is clear and directly relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page titled "Visas and Travel Authorizations," which provides detailed information about arriving in Canada and obtaining a visa invitation letter. The page includes links to further details about visa requirements and the Electronic Travel Authorization (ETA), ensuring Abi receives comprehensive information. This aligns with her motivation to find all necessary visa details and her comprehensive information processing style. The clear and relevant information indicates that she has made progress toward her goal and can gather all the information she needs.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi lands on a page that provides detailed information about arriving in Canada, the Electronic Travel Authorization (ETA), and the Visa Invitation Letter. This page includes links to further details about entry requirements and the ETA overview, which aligns with Abi's comprehensive information processing style. The information is clearly presented and directly relevant to her goal, so she will know she is making progress and has access to the necessary information.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Visa Overview" link is clearly labeled and placed under the "Arriving in Canada" section, making it intuitive for Abi to click it for more detailed information about visa requirements. This aligns with her motivation to gather comprehensive visa information and supports her information processing style, as she is likely to click on the link to ensure she has all necessary details. The clear labeling and context help her feel confident in knowing what to do at this step, supporting her computer self-efficacy.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more specific details about the visa requirements. The link is clearly labeled and directly relevant to her goal.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely text-heavy and packed with detailed information. While it may contain the necessary visa information, the overwhelming amount of text can make it difficult for Abi to process the information comprehensively. Abi might struggle to find the specific details she needs due to the sheer volume of content, which could affect her confidence in knowing she is making progress toward her goal. The layout does not support an easy or efficient way to extract the necessary visa details, making it less likely for her to feel assured that she did the right thing.</t>
+Why: The page Abi lands on after clicking "Visa Overview" is extremely long and contains a large amount of detailed information. While comprehensive, the sheer volume of text can be overwhelming, especially for someone with low computer self-efficacy. Abi might struggle to find the specific information she needs within this extensive content, making it difficult for her to feel confident that she is making progress toward her goal. The lack of clear, concise, and easily navigable information can hinder her ability to efficiently gather the necessary details.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO2.xlsx
+++ b/outputs/POMPANO2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,16 +426,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to handle travel logistics, including obtaining a visa. The "Visas and Travel" link under the "Attending" section is relevant to her needs. Given her comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Attending" section is not immediately clear as a clickable link or button. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not be sure that clicking "Attending" is the correct action to find visa information. The page does not provide explicit instructions or indications that clicking "Attending" will lead to visa information, which could cause hesitation for Abi.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would logically deduce that clicking on "Attending" is a step toward finding the visa information she needs. The clear labeling helps guide her actions, making it straightforward for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This clearly indicates that she is on the right path to finding the visa information she needs. The presence of this specific option in the dropdown menu will confirm to Abi that she is making progress toward her goal of obtaining visa information for the conference. The dropdown menu is straightforward and provides a clear next step, aligning with her comprehensive information processing style.</t>
+Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. The presence of this specific option in the dropdown menu will confirm to Abi that she is on the right track and making progress toward her goal. Given her comprehensive information processing style, she will recognize that selecting this option will likely provide the detailed information she needs.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations" as an option. Given Abi's motivation to find visa information and her comprehensive information processing style, she will recognize that clicking on "Visas and Travel Authorizations" is the appropriate next step to obtain the information she needs. The label is explicit and directly related to her goal, making it clear what she should do at this step.</t>
+Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on this option is the logical next step to obtain the visa information she needs. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about arriving in Canada, the Electronic Travel Authorization (ETA), and the Visa Invitation Letter. This page contains comprehensive information and links to further details, which aligns with Abi's comprehensive information processing style. The clear and relevant content will confirm to Abi that she is making progress toward her goal of obtaining visa information and will provide her with the necessary details to proceed.</t>
+Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes specific instructions and links to further resources, such as the Canadian government’s visa and ETA requirements. Given Abi's comprehensive information processing style, she will recognize that she has found the relevant and detailed information she needs, confirming that she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Visa Overview" as a link under the "Arriving in Canada" section. Given Abi's motivation to find detailed visa information and her comprehensive information processing style, she will recognize that clicking on "Visa Overview" is the appropriate next step to obtain more detailed information about the visa requirements. The link is explicitly labeled and directly related to her goal, making it clear what she should do at this step.</t>
+Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides links to further resources, including "Visa Overview," which is clearly labeled and relevant to her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the logical next step to obtain more detailed information about the visa requirements and process. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking "Visa Overview" is extremely long and text-heavy, which can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to sift through the vast amount of information to find what is relevant to her specific situation. Additionally, her low computer self-efficacy might make her feel uncertain about whether she is on the right track or if she has missed any critical information. The lack of clear, concise, and organized information can hinder her confidence in making progress toward her goal.</t>
+Why: While Abi will land on a page with extensive information about visa requirements, the page is very text-heavy and may be overwhelming. Given Abi's comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details. The lack of clear, concise, and easily navigable information could hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO2.xlsx
+++ b/outputs/POMPANO2.xlsx
@@ -424,63 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the ICSE conference and needs to look into travel visa information as part of her preparation. The "Visas and Travel" link under the "Attending" section on the conference website is clearly relevant to her goal. Given Abi's comprehensive information processing style, she would consider looking for visa information on the conference website as a necessary step toward achieving her overall goal of attending the conference.</t>
+          <t>Answer: NO 
+Facets: 1. Motivations
+Why: The subgoal is not a step toward achieving the overall use case from Abi’s perspective. Abi’s motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The "Attending" section is clearly labeled and includes relevant subcategories such as "Visas and Travel." Given Abi's comprehensive information processing style, she would logically deduce that clicking on "Attending" is a step toward finding the visa information she needs. The clear labeling helps guide her actions, making it straightforward for her to know what to do at this step.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy and 5. Learning Style
+Why: ABI struggles with unfamiliar computing tasks and does not like to tinker with software. The text on the page does not provide any information about what clicking "attending" will do; thus, ABI would not know what to do.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO 
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi will see a dropdown menu that includes "Visas and Travel Authorizations." This directly aligns with her goal of finding visa information. The presence of this specific option in the dropdown menu will confirm to Abi that she is on the right track and making progress toward her goal. Given her comprehensive information processing style, she will recognize that selecting this option will likely provide the detailed information she needs.</t>
+Why: ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process. There is no indication on the page that clicking the button will lead to any information about travel visas.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find visa information to attend the ICSE conference. The dropdown menu under "Attending" clearly lists "Visas and Travel Authorizations," which directly aligns with her goal. Given her comprehensive information processing style, Abi will recognize that clicking on this option is the logical next step to obtain the visa information she needs. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
+          <t>Answer: YES  
+Facets:  2. Information Processing Style
+Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked the "attending" button on the page. Now, the "visa" link is visible to her and she would know that clicking on it will provide her with the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Visas and Travel Authorizations," Abi will land on a page that provides detailed information about visa requirements and the process for obtaining a visa invitation letter. This page includes specific instructions and links to further resources, such as the Canadian government’s visa and ETA requirements. Given Abi's comprehensive information processing style, she will recognize that she has found the relevant and detailed information she needs, confirming that she did the right thing and is making progress toward her goal.</t>
+          <t>Answer: YES 
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: A visa page has opened after clicking on the "visa" link. ABI will know that she is making progress toward her goal of finding information about visas because the page contains a lot of text about visas. ABI tends to use a comprehensive information processing style when she needs to get more information, and she prefers to learn by process-oriented learning (e.g., tutorials, step-by-step processes). The visa page is well-organized and easy to follow, which will make it easy for ABI to find the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to find detailed visa information to attend the ICSE conference. The page she is on provides links to further resources, including "Visa Overview," which is clearly labeled and relevant to her goal. Given her comprehensive information processing style, Abi will recognize that clicking on "Visa Overview" is the logical next step to obtain more detailed information about the visa requirements and process. The clear labeling and relevance to her goal make it straightforward for her to know what to do at this step.</t>
+          <t>Answer: YES 
+Facets: 2. Information Processing Style
+Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked on the "visa" link on the previous page and now she has landed on the visa page. Now, the "Visa Overview" link is visible to her and she would know that clicking on it will provide her with the information she needs about the overview of visas.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will land on a page with extensive information about visa requirements, the page is very text-heavy and may be overwhelming. Given Abi's comprehensive information processing style, she might struggle to sift through the dense content to find the specific information she needs. Additionally, her low computer self-efficacy may make her feel uncertain about whether she has found all the necessary details. The lack of clear, concise, and easily navigable information could hinder her confidence in knowing she did the right thing and is making progress toward her goal.</t>
+          <t>Answer: NO 
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Visa Overview" page does not contain any information about visas for Chinese citizens. The overview is more about the process of applying for a visa and does not provide any specific information about the requirements for Chinese citizens. ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process.</t>
         </is>
       </c>
     </row>

--- a/outputs/POMPANO2.xlsx
+++ b/outputs/POMPANO2.xlsx
@@ -424,63 +424,63 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO 
+          <t>Answer: YES
 Facets: 1. Motivations
-Why: The subgoal is not a step toward achieving the overall use case from Abi’s perspective. Abi’s motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research.</t>
+Why: Abi is motivated to attend the ICSE conference and needs to handle travel visa arrangements. Looking for visa information on the conference website is a logical step toward achieving her goal of attending the conference.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy and 5. Learning Style
-Why: ABI struggles with unfamiliar computing tasks and does not like to tinker with software. The text on the page does not provide any information about what clicking "attending" will do; thus, ABI would not know what to do.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Attending" section is likely to contain relevant information about attending the conference, including travel and visa details. Abi is motivated to find visa information, and the label "Attending" suggests it might include necessary details for conference attendees.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO 
+          <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process. There is no indication on the page that clicking the button will lead to any information about travel visas.</t>
+Why: After clicking "Attending," Abi sees a dropdown menu with "Visas and Travel Authorizations," which directly relates to her goal of finding visa information. This confirms she is on the right track and making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES  
-Facets:  2. Information Processing Style
-Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked the "attending" button on the page. Now, the "visa" link is visible to her and she would know that clicking on it will provide her with the information she needs.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The option "Visas and Travel Authorizations" is clearly labeled in the dropdown menu, indicating it will provide the visa information Abi is seeking. This aligns with her goal, and she will know to click it to proceed.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES 
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: A visa page has opened after clicking on the "visa" link. ABI will know that she is making progress toward her goal of finding information about visas because the page contains a lot of text about visas. ABI tends to use a comprehensive information processing style when she needs to get more information, and she prefers to learn by process-oriented learning (e.g., tutorials, step-by-step processes). The visa page is well-organized and easy to follow, which will make it easy for ABI to find the information she needs.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Visas and Travel Authorizations," Abi lands on a page with detailed information about visa requirements and the process for obtaining a visa invitation letter. This confirms she is making progress toward her goal and provides the necessary information she needs.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES 
-Facets: 2. Information Processing Style
-Why: ABI tends to use a comprehensive information processing style when she needs to get more information and does it in a batch of activities. Here, she wants to gather information about visas and she has clicked on the "visa" link on the previous page and now she has landed on the visa page. Now, the "Visa Overview" link is visible to her and she would know that clicking on it will provide her with the information she needs about the overview of visas.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Visa Overview" link is clearly labeled and suggests it will provide a summary of visa requirements. Abi is motivated to find comprehensive visa information, and this link aligns with her goal.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO 
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Visa Overview" page does not contain any information about visas for Chinese citizens. The overview is more about the process of applying for a visa and does not provide any specific information about the requirements for Chinese citizens. ABI's motivations are to accomplish tasks (i.e., go to ICSE), not to gather information for research. She prefers to stay with the technologies for which she has already mastered the peculiarities. Thus, clicking the button is not something she would do unless it is a clear next step in the process.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to find specific details quickly, and her low computer self-efficacy could lead to confusion about whether she has all the necessary information.</t>
         </is>
       </c>
     </row>
